--- a/testData/information.xlsx
+++ b/testData/information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaikumarVeeramalla\OneDrive - Client Server Technology Solutions LLC\Documents\BGC_MicroServices_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC1048A0519F437A5BDE58F0" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7843F6A0-39F6-4D9C-A26F-4A1EB559530A}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_F25DC773A252ABDACC1048A0519F437A5BDE58F0" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{943AAA3B-D4AB-46E8-83B5-06610DF865B0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentails" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Client</t>
   </si>
@@ -78,27 +78,12 @@
     <t>mobileNumber</t>
   </si>
   <si>
-    <t>Total_Candidates</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>BGV_Completed_Candidates</t>
-  </si>
-  <si>
-    <t>Login_Expired Candidates</t>
-  </si>
-  <si>
-    <t>Submitted_For_Verification</t>
-  </si>
-  <si>
-    <t>Non_Submitted_Candidates</t>
-  </si>
-  <si>
     <t>/user/bgvCompleted/candidates</t>
   </si>
   <si>
@@ -112,13 +97,40 @@
   </si>
   <si>
     <t>/user/nonSubmit/candidates</t>
+  </si>
+  <si>
+    <t>[T28] Login_Expired Candidates</t>
+  </si>
+  <si>
+    <t>[T87] Pending Case Submission candidates</t>
+  </si>
+  <si>
+    <t>[T17] Total Candidates</t>
+  </si>
+  <si>
+    <t>[T29] BGV Completed Candidates</t>
+  </si>
+  <si>
+    <t>[T19] Submitted For Verification</t>
+  </si>
+  <si>
+    <t>[T20] Non-Submitted Candidates</t>
+  </si>
+  <si>
+    <t>/user/user/candidates</t>
+  </si>
+  <si>
+    <t>formate</t>
+  </si>
+  <si>
+    <t>auto@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,9 +160,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,10 +191,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -183,12 +205,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,7 +495,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,10 +564,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1828F06-733B-4851-8F18-8E054670AD89}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,84 +599,104 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>35818</v>
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>35818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>9839899889</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{85782C72-9D02-43AA-92A9-5E07DB3735CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5EC8F3-BE8C-416D-9D96-E28C10570960}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="37" customWidth="1"/>
+    <col min="1" max="1" width="47.26953125" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
